--- a/medicine/Psychotrope/Liste_des_communes_de_l'appellation_d'origine_contrôlée_Anjou/Liste_des_communes_de_l'appellation_d'origine_contrôlée_Anjou.xlsx
+++ b/medicine/Psychotrope/Liste_des_communes_de_l'appellation_d'origine_contrôlée_Anjou/Liste_des_communes_de_l'appellation_d'origine_contrôlée_Anjou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_communes_de_l%27appellation_d%27origine_contr%C3%B4l%C3%A9e_Anjou</t>
+          <t>Liste_des_communes_de_l'appellation_d'origine_contrôlée_Anjou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article liste les communes de l'appellation d'origine contrôlée anjou, y compris l'anjou-gamay, le cabernet d'Anjou et le rosé d'Anjou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_communes_de_l%27appellation_d%27origine_contr%C3%B4l%C3%A9e_Anjou</t>
+          <t>Liste_des_communes_de_l'appellation_d'origine_contrôlée_Anjou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,50 @@
           <t>Liste des communes par département</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sont assurés sur le territoire des communes suivantes :
 la récolte des raisins, la vinification, l'élaboration et l'élevage des  vins tranquilles susceptibles de bénéficier de l'appellation d'origine contrôlée anjou ;
 la récolte des raisins, la vinification, l'élaboration, l'élevage et le conditionnement des vins mousseux blancs et rosés susceptibles de bénéficier de l'appellation d'origine contrôlée anjou ;
-la récolte des raisins, la vinification et l'élaboration des vins susceptibles de bénéficier des appellations d'origine contrôlées cabernet d'Anjou et rosé d'Anjou[1].
-Département de Maine-et-Loire
-Les Alleuds
+la récolte des raisins, la vinification et l'élaboration des vins susceptibles de bénéficier des appellations d'origine contrôlées cabernet d'Anjou et rosé d'Anjou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_communes_de_l'appellation_d'origine_contrôlée_Anjou</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_communes_de_l%27appellation_d%27origine_contr%C3%B4l%C3%A9e_Anjou</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des communes par département</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Département de Maine-et-Loire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Alleuds
 Allonnes
 Ambillou-Château
 Angers
@@ -643,9 +691,43 @@
 Les Verchers-sur-Layon
 Verrie
 Vihiers
-Villevêque
-Département des Deux-Sèvres
-Argenton-l'Eglise
+Villevêque</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_communes_de_l'appellation_d'origine_contrôlée_Anjou</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_communes_de_l%27appellation_d%27origine_contr%C3%B4l%C3%A9e_Anjou</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des communes par département</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Département des Deux-Sèvres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Argenton-l'Eglise
 Bouillé-Loretz
 Bouillé-Saint-Paul
 Brion-près-Thouet
@@ -658,9 +740,43 @@
 Sainte-Radegonde
 Sainte-Verge
 Thouars
-Tourtenay
-Département de la Vienne
-Berrie
+Tourtenay</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_communes_de_l'appellation_d'origine_contrôlée_Anjou</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_communes_de_l%27appellation_d%27origine_contr%C3%B4l%C3%A9e_Anjou</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des communes par département</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Département de la Vienne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Berrie
 Curçay-sur-Dive
 Glénouze
 Pouançay
